--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3008906.122362981</v>
+        <v>3006450.17081833</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10392628.21291233</v>
+        <v>10392628.21291234</v>
       </c>
     </row>
     <row r="8">
@@ -1376,13 +1376,13 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>311.723616015233</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>212.4306792297596</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
@@ -1433,10 +1433,10 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1607,22 +1607,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>275.972398744451</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>12.93904590899746</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958323</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1667,10 +1667,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124557</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9570160514548</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5090575347321</v>
+        <v>314.509057534732</v>
       </c>
       <c r="C17" t="n">
-        <v>297.0481076422591</v>
+        <v>297.048107642259</v>
       </c>
       <c r="D17" t="n">
         <v>286.4582574919344</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7055859435133</v>
+        <v>243.9634220772284</v>
       </c>
       <c r="F17" t="n">
         <v>338.6512616129629</v>
       </c>
       <c r="G17" t="n">
-        <v>342.6969415247049</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>226.382980258572</v>
+        <v>226.3829802585719</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.96297765942728</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6931860108717</v>
+        <v>135.6931860108716</v>
       </c>
       <c r="U17" t="n">
-        <v>70.82173443997672</v>
+        <v>182.7703878301534</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>259.5274743413863</v>
       </c>
       <c r="W17" t="n">
-        <v>281.0161845886645</v>
+        <v>281.0161845886644</v>
       </c>
       <c r="X17" t="n">
         <v>301.5063165497205</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0131545273051</v>
+        <v>318.013154527305</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111.6071960531888</v>
+        <v>111.6071960531887</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02203696987934</v>
+        <v>99.02203696987927</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39068888946386</v>
+        <v>80.39068888946379</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20917851782067</v>
+        <v>78.2091785178206</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19626389418275</v>
+        <v>77.19626389418268</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80102413027973</v>
+        <v>97.80102413027966</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53023078557229</v>
+        <v>76.53023078557221</v>
       </c>
       <c r="I19" t="n">
-        <v>28.1276362810896</v>
+        <v>28.12763628108953</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70736854129883</v>
+        <v>20.70736854129876</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5442412026934</v>
+        <v>121.5442412026933</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3241651474207</v>
+        <v>151.3241651474206</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9870540768644</v>
+        <v>217.9870540768643</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9128591950795</v>
+        <v>183.9128591950794</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2982142078425</v>
+        <v>218.2982142078424</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4848712602887</v>
+        <v>157.4848712602886</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3598692233463</v>
+        <v>150.3598692233462</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5090575347321</v>
+        <v>314.509057534732</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>297.048107642259</v>
       </c>
       <c r="D20" t="n">
-        <v>171.0672597432036</v>
+        <v>286.4582574919344</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7055859435133</v>
+        <v>313.7055859435132</v>
       </c>
       <c r="F20" t="n">
-        <v>338.6512616129629</v>
+        <v>152.5951364805458</v>
       </c>
       <c r="G20" t="n">
         <v>342.6969415247049</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3829802585719</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96297765942734</v>
+        <v>40.96297765942727</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6931860108717</v>
+        <v>135.6931860108716</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7703878301535</v>
+        <v>182.7703878301534</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5274743413864</v>
+        <v>259.5274743413863</v>
       </c>
       <c r="W20" t="n">
-        <v>281.0161845886645</v>
+        <v>281.0161845886644</v>
       </c>
       <c r="X20" t="n">
         <v>301.5063165497205</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.0131545273051</v>
+        <v>318.013154527305</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>111.6071960531888</v>
+        <v>111.6071960531887</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02203696987934</v>
+        <v>99.02203696987927</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39068888946386</v>
+        <v>80.39068888946379</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20917851782067</v>
+        <v>78.2091785178206</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19626389418275</v>
+        <v>77.19626389418268</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80102413027973</v>
+        <v>97.80102413027966</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53023078557229</v>
+        <v>76.53023078557221</v>
       </c>
       <c r="I22" t="n">
-        <v>28.1276362810896</v>
+        <v>28.12763628108953</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70736854129883</v>
+        <v>20.70736854129876</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5442412026934</v>
+        <v>121.5442412026933</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3241651474207</v>
+        <v>151.3241651474206</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9870540768644</v>
+        <v>217.9870540768643</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9128591950795</v>
+        <v>183.9128591950794</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2982142078425</v>
+        <v>218.2982142078424</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4848712602887</v>
+        <v>157.4848712602886</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3598692233463</v>
+        <v>150.3598692233462</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5090575347321</v>
+        <v>314.509057534732</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0481076422591</v>
+        <v>297.048107642259</v>
       </c>
       <c r="D23" t="n">
         <v>286.4582574919344</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7055859435133</v>
+        <v>313.7055859435132</v>
       </c>
       <c r="F23" t="n">
         <v>338.6512616129629</v>
@@ -2333,7 +2333,7 @@
         <v>342.6969415247049</v>
       </c>
       <c r="H23" t="n">
-        <v>226.382980258572</v>
+        <v>226.3829802585719</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96297765942732</v>
+        <v>40.96297765942727</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6931860108717</v>
+        <v>135.6931860108716</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7703878301535</v>
+        <v>182.7703878301534</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5274743413864</v>
+        <v>259.5274743413863</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0161845886645</v>
+        <v>281.0161845886644</v>
       </c>
       <c r="X23" t="n">
         <v>301.5063165497205</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0131545273051</v>
+        <v>318.013154527305</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.6071960531888</v>
+        <v>111.6071960531887</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02203696987934</v>
+        <v>99.02203696987927</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39068888946386</v>
+        <v>80.39068888946379</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20917851782067</v>
+        <v>78.2091785178206</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19626389418275</v>
+        <v>77.19626389418268</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80102413027973</v>
+        <v>97.80102413027966</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53023078557229</v>
+        <v>76.53023078557221</v>
       </c>
       <c r="I25" t="n">
-        <v>28.1276362810896</v>
+        <v>28.12763628108953</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70736854129883</v>
+        <v>20.70736854129876</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5442412026934</v>
+        <v>121.5442412026933</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3241651474207</v>
+        <v>151.3241651474206</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9870540768644</v>
+        <v>217.9870540768643</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9128591950795</v>
+        <v>183.9128591950794</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2982142078425</v>
+        <v>218.2982142078424</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4848712602887</v>
+        <v>157.4848712602886</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3598692233463</v>
+        <v>150.3598692233462</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572928</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2956,19 +2956,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797643</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T31" t="n">
         <v>172.5738126575766</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>310.0332159364514</v>
+        <v>310.0332159364515</v>
       </c>
       <c r="C35" t="n">
-        <v>292.5722660439784</v>
+        <v>292.5722660439785</v>
       </c>
       <c r="D35" t="n">
-        <v>281.9824158936538</v>
+        <v>281.9824158936539</v>
       </c>
       <c r="E35" t="n">
-        <v>309.2297443452326</v>
+        <v>309.2297443452327</v>
       </c>
       <c r="F35" t="n">
         <v>334.1754200146823</v>
       </c>
       <c r="G35" t="n">
-        <v>338.2210999264243</v>
+        <v>338.2210999264244</v>
       </c>
       <c r="H35" t="n">
-        <v>221.9071386602913</v>
+        <v>221.9071386602914</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>36.48713606114669</v>
+        <v>36.48713606114673</v>
       </c>
       <c r="T35" t="n">
         <v>131.217344412591</v>
       </c>
       <c r="U35" t="n">
-        <v>178.2945462318728</v>
+        <v>178.2945462318729</v>
       </c>
       <c r="V35" t="n">
         <v>255.0516327431058</v>
@@ -3332,7 +3332,7 @@
         <v>297.0304749514399</v>
       </c>
       <c r="Y35" t="n">
-        <v>313.5373129290244</v>
+        <v>313.5373129290245</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>107.1313544549081</v>
+        <v>107.1313544549082</v>
       </c>
       <c r="C37" t="n">
-        <v>94.54619537159869</v>
+        <v>94.54619537159873</v>
       </c>
       <c r="D37" t="n">
-        <v>75.91484729118321</v>
+        <v>75.91484729118325</v>
       </c>
       <c r="E37" t="n">
-        <v>73.73333691954002</v>
+        <v>73.73333691954006</v>
       </c>
       <c r="F37" t="n">
-        <v>72.7204222959021</v>
+        <v>72.72042229590214</v>
       </c>
       <c r="G37" t="n">
-        <v>93.32518253199908</v>
+        <v>93.32518253199912</v>
       </c>
       <c r="H37" t="n">
-        <v>72.05438918729163</v>
+        <v>72.05438918729168</v>
       </c>
       <c r="I37" t="n">
-        <v>23.65179468280895</v>
+        <v>23.65179468280899</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23152694301818</v>
+        <v>16.23152694301822</v>
       </c>
       <c r="S37" t="n">
-        <v>117.0683996044127</v>
+        <v>117.0683996044128</v>
       </c>
       <c r="T37" t="n">
-        <v>146.84832354914</v>
+        <v>190.1334980850646</v>
       </c>
       <c r="U37" t="n">
-        <v>213.5112124785837</v>
+        <v>213.5112124785838</v>
       </c>
       <c r="V37" t="n">
-        <v>222.722192132724</v>
+        <v>179.4370175967989</v>
       </c>
       <c r="W37" t="n">
         <v>213.8223726095619</v>
       </c>
       <c r="X37" t="n">
-        <v>153.009029662008</v>
+        <v>153.0090296620081</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.8840276250656</v>
+        <v>145.8840276250657</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>310.0332159364514</v>
+        <v>310.0332159364515</v>
       </c>
       <c r="C38" t="n">
-        <v>292.5722660439784</v>
+        <v>292.5722660439785</v>
       </c>
       <c r="D38" t="n">
-        <v>281.9824158936538</v>
+        <v>281.9824158936539</v>
       </c>
       <c r="E38" t="n">
-        <v>309.2297443452326</v>
+        <v>309.2297443452327</v>
       </c>
       <c r="F38" t="n">
         <v>334.1754200146823</v>
       </c>
       <c r="G38" t="n">
-        <v>338.2210999264243</v>
+        <v>338.2210999264244</v>
       </c>
       <c r="H38" t="n">
-        <v>221.9071386602913</v>
+        <v>221.9071386602914</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>36.48713606114669</v>
+        <v>36.48713606114671</v>
       </c>
       <c r="T38" t="n">
         <v>131.217344412591</v>
       </c>
       <c r="U38" t="n">
-        <v>178.2945462318728</v>
+        <v>178.2945462318729</v>
       </c>
       <c r="V38" t="n">
         <v>255.0516327431058</v>
@@ -3569,7 +3569,7 @@
         <v>297.0304749514399</v>
       </c>
       <c r="Y38" t="n">
-        <v>313.5373129290244</v>
+        <v>313.5373129290245</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.1313544549081</v>
+        <v>107.1313544549082</v>
       </c>
       <c r="C40" t="n">
-        <v>137.8313699075238</v>
+        <v>94.54619537159873</v>
       </c>
       <c r="D40" t="n">
-        <v>75.91484729118321</v>
+        <v>75.91484729118325</v>
       </c>
       <c r="E40" t="n">
-        <v>73.73333691954002</v>
+        <v>73.73333691954006</v>
       </c>
       <c r="F40" t="n">
-        <v>72.7204222959021</v>
+        <v>72.72042229590214</v>
       </c>
       <c r="G40" t="n">
-        <v>93.32518253199908</v>
+        <v>93.32518253199912</v>
       </c>
       <c r="H40" t="n">
-        <v>72.05438918729163</v>
+        <v>72.05438918729168</v>
       </c>
       <c r="I40" t="n">
-        <v>23.65179468280895</v>
+        <v>23.65179468280899</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23152694301818</v>
+        <v>16.23152694301822</v>
       </c>
       <c r="S40" t="n">
-        <v>117.0683996044127</v>
+        <v>117.0683996044128</v>
       </c>
       <c r="T40" t="n">
-        <v>146.84832354914</v>
+        <v>146.8483235491401</v>
       </c>
       <c r="U40" t="n">
-        <v>213.5112124785837</v>
+        <v>213.5112124785838</v>
       </c>
       <c r="V40" t="n">
         <v>179.4370175967989</v>
@@ -3724,10 +3724,10 @@
         <v>213.8223726095619</v>
       </c>
       <c r="X40" t="n">
-        <v>153.009029662008</v>
+        <v>153.0090296620081</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.8840276250656</v>
+        <v>189.1692021609903</v>
       </c>
     </row>
     <row r="41">
@@ -3743,10 +3743,10 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>282.5062909376481</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>168.2529021021591</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,7 +3797,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -3992,7 +3992,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>222.4310137042852</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
-        <v>0.8060213432259457</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
         <v>280.7771218515423</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
         <v>120.2716844800353</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1865.426368684488</v>
+        <v>1627.383644777219</v>
       </c>
       <c r="C11" t="n">
-        <v>1543.91348469215</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D11" t="n">
-        <v>1233.097419033473</v>
+        <v>995.0546951262035</v>
       </c>
       <c r="E11" t="n">
-        <v>894.7587993833015</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F11" t="n">
-        <v>531.2225275417672</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
@@ -5051,40 +5051,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>3119.524977831082</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>2835.911723435584</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>2530.592701113544</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2204.576575800537</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="Y11" t="n">
-        <v>2204.576575800537</v>
+        <v>1966.533851893267</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
         <v>2096.912393410638</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E13" t="n">
-        <v>434.849232726878</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998334</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657644</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328083</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,7 +5218,7 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
         <v>2256.956805813346</v>
@@ -5227,10 +5227,10 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1459.895634131918</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C14" t="n">
-        <v>1459.895634131918</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="D14" t="n">
-        <v>1149.079568473241</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>810.7409488230699</v>
+        <v>684.268901082273</v>
       </c>
       <c r="F14" t="n">
-        <v>447.2046769815356</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>79.58185977460511</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3262.76478608434</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U14" t="n">
-        <v>3056.68394230625</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2773.070687910752</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2467.751665588711</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2141.735540275704</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y14" t="n">
-        <v>1799.045841247966</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5346,22 +5346,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998338</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315245</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328092</v>
+        <v>408.6327023328075</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337119</v>
+        <v>771.6978860337103</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1889.686999739201</v>
+        <v>1473.081842778604</v>
       </c>
       <c r="C17" t="n">
-        <v>1589.638406161161</v>
+        <v>1173.033249200565</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.286630916783</v>
+        <v>883.6814739561867</v>
       </c>
       <c r="E17" t="n">
-        <v>983.412301680911</v>
+        <v>637.2537748882793</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3403202536758</v>
+        <v>295.1817934610439</v>
       </c>
       <c r="G17" t="n">
-        <v>295.181793461044</v>
+        <v>295.1817934610439</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,13 +5513,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.229076498638</v>
       </c>
       <c r="T17" t="n">
-        <v>3188.541997355765</v>
+        <v>3147.165252245232</v>
       </c>
       <c r="U17" t="n">
-        <v>3117.00489186084</v>
+        <v>2962.548698881441</v>
       </c>
       <c r="V17" t="n">
-        <v>3117.00489186084</v>
+        <v>2700.399734900242</v>
       </c>
       <c r="W17" t="n">
-        <v>2833.150159953097</v>
+        <v>2416.545002992501</v>
       </c>
       <c r="X17" t="n">
-        <v>2528.59832505439</v>
+        <v>2111.993168093793</v>
       </c>
       <c r="Y17" t="n">
-        <v>2207.372916440951</v>
+        <v>1790.767759480354</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2162169052019</v>
+        <v>609.2162169052015</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1939573396672</v>
+        <v>509.1939573396668</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9912412897037</v>
+        <v>427.9912412897033</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9920710696828</v>
+        <v>348.9920710696825</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0160469341446</v>
+        <v>271.0160469341445</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2271336712358</v>
+        <v>172.2271336712357</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92387025146584</v>
+        <v>94.92387025146577</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5677,46 +5677,46 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>660.79616566696</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.953211266509</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.361587972374</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.691186892787</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.298687326446</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.908983478963</v>
+        <v>1955.908983478961</v>
       </c>
       <c r="R19" t="n">
-        <v>1934.992449598863</v>
+        <v>1934.992449598862</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.220488788061</v>
+        <v>1812.22048878806</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.36779671996</v>
+        <v>1659.367796719959</v>
       </c>
       <c r="U19" t="n">
         <v>1439.178853207975</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.408288364461</v>
+        <v>1253.40828836446</v>
       </c>
       <c r="W19" t="n">
         <v>1032.905041689872</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8294141542274</v>
+        <v>873.8294141542267</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9507583730694</v>
+        <v>721.9507583730689</v>
       </c>
     </row>
     <row r="20">
@@ -5726,64 +5726,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1473.081842778604</v>
+        <v>1473.081842778605</v>
       </c>
       <c r="C20" t="n">
-        <v>1473.081842778604</v>
+        <v>1173.033249200565</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.286630916783</v>
+        <v>883.6814739561873</v>
       </c>
       <c r="E20" t="n">
-        <v>983.4123016809106</v>
+        <v>566.8071447203156</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3403202536753</v>
+        <v>412.6706432248146</v>
       </c>
       <c r="G20" t="n">
-        <v>295.181793461044</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.229076498638</v>
+        <v>3284.229076498639</v>
       </c>
       <c r="T20" t="n">
         <v>3147.165252245233</v>
       </c>
       <c r="U20" t="n">
-        <v>2962.548698881441</v>
+        <v>2962.548698881442</v>
       </c>
       <c r="V20" t="n">
         <v>2700.399734900243</v>
@@ -5792,7 +5792,7 @@
         <v>2416.545002992501</v>
       </c>
       <c r="X20" t="n">
-        <v>2111.993168093793</v>
+        <v>2111.993168093794</v>
       </c>
       <c r="Y20" t="n">
         <v>1790.767759480354</v>
@@ -5820,22 +5820,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2162169052019</v>
+        <v>609.2162169052015</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1939573396672</v>
+        <v>509.1939573396668</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9912412897037</v>
+        <v>427.9912412897033</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9920710696828</v>
+        <v>348.9920710696825</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0160469341446</v>
+        <v>271.0160469341445</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2271336712358</v>
+        <v>172.2271336712357</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92387025146584</v>
+        <v>94.92387025146579</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5917,43 +5917,43 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>1004.95321126651</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.361587972375</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1645.691186892788</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.298687326448</v>
+        <v>1878.298687326446</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.908983478963</v>
+        <v>1955.908983478961</v>
       </c>
       <c r="R22" t="n">
-        <v>1934.992449598863</v>
+        <v>1934.992449598862</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.220488788061</v>
+        <v>1812.22048878806</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.36779671996</v>
+        <v>1659.367796719959</v>
       </c>
       <c r="U22" t="n">
         <v>1439.178853207975</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.408288364461</v>
+        <v>1253.40828836446</v>
       </c>
       <c r="W22" t="n">
         <v>1032.905041689872</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8294141542274</v>
+        <v>873.8294141542267</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9507583730694</v>
+        <v>721.9507583730689</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.189145799622</v>
+        <v>1898.18914579962</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.140552221582</v>
+        <v>1598.14055222158</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.788776977204</v>
+        <v>1308.788776977203</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9144477413317</v>
+        <v>991.9144477413309</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8424663140963</v>
+        <v>649.8424663140956</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6839395214644</v>
+        <v>303.6839395214643</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01426249260376</v>
+        <v>75.01426249260373</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01426249260376</v>
+        <v>75.01426249260373</v>
       </c>
       <c r="J23" t="n">
-        <v>431.2990424719823</v>
+        <v>263.8933934516292</v>
       </c>
       <c r="K23" t="n">
-        <v>765.1184161618287</v>
+        <v>597.7127671414758</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.152629410238</v>
+        <v>1048.746980389885</v>
       </c>
       <c r="M23" t="n">
-        <v>1749.684534082162</v>
+        <v>1582.278885061809</v>
       </c>
       <c r="N23" t="n">
-        <v>2296.463351140944</v>
+        <v>2168.670679631069</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.635329960525</v>
+        <v>3048.635329960523</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.409696317703</v>
+        <v>3443.409696317702</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.696058073386</v>
+        <v>3691.696058073384</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.713124630188</v>
+        <v>3750.713124630186</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.336379519656</v>
+        <v>3709.336379519653</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.27255526625</v>
+        <v>3572.272555266248</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.656001902459</v>
+        <v>3387.656001902456</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.50703792126</v>
+        <v>3125.507037921258</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.652306013518</v>
+        <v>2841.652306013516</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.100471114811</v>
+        <v>2537.100471114808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.875062501371</v>
+        <v>2215.875062501369</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0460005415289</v>
+        <v>950.046000541529</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5929712604019</v>
+        <v>775.592971260402</v>
       </c>
       <c r="D24" t="n">
         <v>626.6585615991507</v>
@@ -6054,28 +6054,28 @@
         <v>467.4211065936952</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8865486205802</v>
+        <v>320.8865486205801</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5234484531987</v>
+        <v>184.5234484531983</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02155409106618</v>
+        <v>94.02155409106578</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01426249260376</v>
+        <v>75.01426249260373</v>
       </c>
       <c r="J24" t="n">
-        <v>168.6915319832211</v>
+        <v>168.6915319832208</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9557309635683</v>
+        <v>406.955730963568</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6538912762337</v>
+        <v>773.6538912762334</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.93021649855</v>
+        <v>1220.930216498549</v>
       </c>
       <c r="N24" t="n">
         <v>1694.453260053004</v>
@@ -6087,7 +6087,7 @@
         <v>2415.914130947162</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.555688593762</v>
+        <v>2573.555688593761</v>
       </c>
       <c r="R24" t="n">
         <v>2573.411335186277</v>
@@ -6096,7 +6096,7 @@
         <v>2443.973448679757</v>
       </c>
       <c r="T24" t="n">
-        <v>2251.330448357613</v>
+        <v>2251.330448357612</v>
       </c>
       <c r="U24" t="n">
         <v>2023.262601492028</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7183629656221</v>
+        <v>617.7183629656217</v>
       </c>
       <c r="C25" t="n">
-        <v>517.6961034000874</v>
+        <v>517.6961034000871</v>
       </c>
       <c r="D25" t="n">
-        <v>436.493387350124</v>
+        <v>436.4933873501236</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4942171301031</v>
+        <v>357.4942171301028</v>
       </c>
       <c r="F25" t="n">
-        <v>279.518192994565</v>
+        <v>279.5181929945647</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7292797316562</v>
+        <v>180.729279731656</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4260163118862</v>
+        <v>103.4260163118861</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01426249260376</v>
+        <v>75.01426249260373</v>
       </c>
       <c r="J25" t="n">
         <v>120.1368949395393</v>
@@ -6151,46 +6151,46 @@
         <v>324.1240778884157</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6838763369119</v>
+        <v>640.6838763369118</v>
       </c>
       <c r="M25" t="n">
-        <v>984.840921936461</v>
+        <v>1013.455357326929</v>
       </c>
       <c r="N25" t="n">
-        <v>1326.249298642326</v>
+        <v>1354.863734032794</v>
       </c>
       <c r="O25" t="n">
-        <v>1625.578897562739</v>
+        <v>1654.193332953207</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.800833386868</v>
+        <v>1886.800833386867</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.411129539383</v>
+        <v>1964.411129539382</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.494595659283</v>
+        <v>1943.494595659282</v>
       </c>
       <c r="S25" t="n">
         <v>1820.722634848481</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.86994278038</v>
+        <v>1667.869942780379</v>
       </c>
       <c r="U25" t="n">
         <v>1447.680999268395</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.910434424881</v>
+        <v>1261.91043442488</v>
       </c>
       <c r="W25" t="n">
         <v>1041.407187750292</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3315602146474</v>
+        <v>882.331560214647</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4529044334896</v>
+        <v>730.4529044334892</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6224,37 +6224,37 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>1045.699547878784</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1496.733761127192</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>2030.265665799117</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N26" t="n">
-        <v>2577.044482857899</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737236</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
@@ -6269,7 +6269,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698009</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899673</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257049</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913852</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415481</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643404</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6403,31 +6403,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386256</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519673</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6449,7 +6449,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557147</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465895</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6494,16 +6494,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
@@ -6546,13 +6546,13 @@
         <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,25 +6619,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982167</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6701,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>625.3777437664567</v>
+        <v>822.9179334642249</v>
       </c>
       <c r="L32" t="n">
-        <v>1076.411957014865</v>
+        <v>1273.952146712634</v>
       </c>
       <c r="M32" t="n">
-        <v>1609.94386168679</v>
+        <v>1807.484051384558</v>
       </c>
       <c r="N32" t="n">
-        <v>2156.722678745572</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075027</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6780,10 +6780,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,16 +6856,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,7 +6877,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6920,37 +6920,37 @@
         <v>1289.412839322309</v>
       </c>
       <c r="E35" t="n">
-        <v>977.0595622059124</v>
+        <v>977.059562205912</v>
       </c>
       <c r="F35" t="n">
-        <v>639.5086328981524</v>
+        <v>639.508632898152</v>
       </c>
       <c r="G35" t="n">
-        <v>297.871158224996</v>
+        <v>297.8711582249961</v>
       </c>
       <c r="H35" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="I35" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J35" t="n">
-        <v>262.6016642746362</v>
+        <v>262.6016642746363</v>
       </c>
       <c r="K35" t="n">
-        <v>596.4210379644827</v>
+        <v>917.3249964099358</v>
       </c>
       <c r="L35" t="n">
-        <v>1082.184957411065</v>
+        <v>1368.359209658345</v>
       </c>
       <c r="M35" t="n">
-        <v>1615.71686208299</v>
+        <v>1934.297583172758</v>
       </c>
       <c r="N35" t="n">
-        <v>2162.495679141772</v>
+        <v>2481.07640023154</v>
       </c>
       <c r="O35" t="n">
-        <v>2665.468150021109</v>
+        <v>2984.048871110877</v>
       </c>
       <c r="P35" t="n">
         <v>3378.823237468055</v>
@@ -6959,10 +6959,10 @@
         <v>3627.109599223737</v>
       </c>
       <c r="R35" t="n">
-        <v>3686.126665780539</v>
+        <v>3686.12666578054</v>
       </c>
       <c r="S35" t="n">
-        <v>3649.270972789482</v>
+        <v>3649.270972789483</v>
       </c>
       <c r="T35" t="n">
         <v>3516.728200655552</v>
@@ -7008,10 +7008,10 @@
         <v>183.2317192762053</v>
       </c>
       <c r="H36" t="n">
-        <v>92.72982491407282</v>
+        <v>92.72982491407285</v>
       </c>
       <c r="I36" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J36" t="n">
         <v>167.3998028062281</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7792689523014</v>
+        <v>584.7792689523017</v>
       </c>
       <c r="C37" t="n">
-        <v>489.2780615062421</v>
+        <v>489.2780615062424</v>
       </c>
       <c r="D37" t="n">
-        <v>412.596397575754</v>
+        <v>412.5963975757542</v>
       </c>
       <c r="E37" t="n">
-        <v>338.1182794752085</v>
+        <v>338.1182794752087</v>
       </c>
       <c r="F37" t="n">
-        <v>264.6633074591458</v>
+        <v>264.6633074591459</v>
       </c>
       <c r="G37" t="n">
-        <v>170.3954463157124</v>
+        <v>170.3954463157125</v>
       </c>
       <c r="H37" t="n">
-        <v>97.61323501541781</v>
+        <v>97.61323501541787</v>
       </c>
       <c r="I37" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J37" t="n">
-        <v>118.8451657625463</v>
+        <v>118.8451657625464</v>
       </c>
       <c r="K37" t="n">
-        <v>322.8323487114227</v>
+        <v>322.8323487114228</v>
       </c>
       <c r="L37" t="n">
-        <v>639.3921471599187</v>
+        <v>639.3921471599189</v>
       </c>
       <c r="M37" t="n">
         <v>983.5491927594678</v>
@@ -7123,22 +7123,22 @@
         <v>1799.85857451997</v>
       </c>
       <c r="T37" t="n">
-        <v>1651.526934571343</v>
+        <v>1607.804536050207</v>
       </c>
       <c r="U37" t="n">
-        <v>1435.859043178834</v>
+        <v>1392.136644657699</v>
       </c>
       <c r="V37" t="n">
         <v>1210.887131933659</v>
       </c>
       <c r="W37" t="n">
-        <v>994.9049373785456</v>
+        <v>994.9049373785462</v>
       </c>
       <c r="X37" t="n">
-        <v>840.3503619623759</v>
+        <v>840.3503619623764</v>
       </c>
       <c r="Y37" t="n">
-        <v>692.9927583006935</v>
+        <v>692.9927583006938</v>
       </c>
     </row>
     <row r="38">
@@ -7157,49 +7157,49 @@
         <v>1289.412839322309</v>
       </c>
       <c r="E38" t="n">
-        <v>977.0595622059125</v>
+        <v>977.0595622059122</v>
       </c>
       <c r="F38" t="n">
-        <v>639.5086328981527</v>
+        <v>639.5086328981522</v>
       </c>
       <c r="G38" t="n">
-        <v>297.871158224996</v>
+        <v>297.8711582249961</v>
       </c>
       <c r="H38" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="I38" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J38" t="n">
-        <v>262.6016642746362</v>
+        <v>262.6016642746363</v>
       </c>
       <c r="K38" t="n">
-        <v>596.4210379644827</v>
+        <v>917.3249964099358</v>
       </c>
       <c r="L38" t="n">
-        <v>1047.455251212892</v>
+        <v>1368.359209658345</v>
       </c>
       <c r="M38" t="n">
-        <v>1580.987155884816</v>
+        <v>1934.297583172758</v>
       </c>
       <c r="N38" t="n">
-        <v>2127.765972943599</v>
+        <v>2481.07640023154</v>
       </c>
       <c r="O38" t="n">
-        <v>2630.738443822936</v>
+        <v>2984.048871110877</v>
       </c>
       <c r="P38" t="n">
-        <v>3168.631396714749</v>
+        <v>3378.823237468055</v>
       </c>
       <c r="Q38" t="n">
         <v>3627.109599223737</v>
       </c>
       <c r="R38" t="n">
-        <v>3686.126665780539</v>
+        <v>3686.12666578054</v>
       </c>
       <c r="S38" t="n">
-        <v>3649.270972789482</v>
+        <v>3649.270972789483</v>
       </c>
       <c r="T38" t="n">
         <v>3516.728200655552</v>
@@ -7245,10 +7245,10 @@
         <v>183.2317192762053</v>
       </c>
       <c r="H39" t="n">
-        <v>92.72982491407282</v>
+        <v>92.72982491407285</v>
       </c>
       <c r="I39" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J39" t="n">
         <v>167.3998028062281</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>628.5016674734379</v>
+        <v>584.7792689523017</v>
       </c>
       <c r="C40" t="n">
-        <v>489.2780615062421</v>
+        <v>489.2780615062424</v>
       </c>
       <c r="D40" t="n">
-        <v>412.596397575754</v>
+        <v>412.5963975757542</v>
       </c>
       <c r="E40" t="n">
-        <v>338.1182794752085</v>
+        <v>338.1182794752087</v>
       </c>
       <c r="F40" t="n">
-        <v>264.6633074591458</v>
+        <v>264.6633074591459</v>
       </c>
       <c r="G40" t="n">
-        <v>170.3954463157124</v>
+        <v>170.3954463157125</v>
       </c>
       <c r="H40" t="n">
-        <v>97.61323501541781</v>
+        <v>97.61323501541787</v>
       </c>
       <c r="I40" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J40" t="n">
-        <v>118.8451657625463</v>
+        <v>118.8451657625464</v>
       </c>
       <c r="K40" t="n">
-        <v>322.8323487114227</v>
+        <v>322.8323487114228</v>
       </c>
       <c r="L40" t="n">
-        <v>639.3921471599187</v>
+        <v>639.3921471599189</v>
       </c>
       <c r="M40" t="n">
         <v>983.5491927594678</v>
@@ -7372,10 +7372,10 @@
         <v>1038.627335899682</v>
       </c>
       <c r="X40" t="n">
-        <v>884.0727604835124</v>
+        <v>884.0727604835123</v>
       </c>
       <c r="Y40" t="n">
-        <v>736.71515682183</v>
+        <v>692.9927583006938</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1945.501618031078</v>
+        <v>1661.888363635582</v>
       </c>
       <c r="C41" t="n">
-        <v>1623.98873403874</v>
+        <v>1340.375479643243</v>
       </c>
       <c r="D41" t="n">
-        <v>1313.172668380063</v>
+        <v>1340.375479643243</v>
       </c>
       <c r="E41" t="n">
-        <v>974.8340487298922</v>
+        <v>1055.015589807235</v>
       </c>
       <c r="F41" t="n">
-        <v>611.2977768883579</v>
+        <v>691.4793179657005</v>
       </c>
       <c r="G41" t="n">
-        <v>243.674959681428</v>
+        <v>323.8565007587703</v>
       </c>
       <c r="H41" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="I41" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J41" t="n">
         <v>430.0073132949893</v>
       </c>
       <c r="K41" t="n">
-        <v>949.7314652524237</v>
+        <v>763.8266869848358</v>
       </c>
       <c r="L41" t="n">
-        <v>1400.765678500833</v>
+        <v>1214.860900233245</v>
       </c>
       <c r="M41" t="n">
-        <v>1934.297583172757</v>
+        <v>1748.392804905169</v>
       </c>
       <c r="N41" t="n">
-        <v>2481.07640023154</v>
+        <v>2295.171621963952</v>
       </c>
       <c r="O41" t="n">
-        <v>2984.048871110876</v>
+        <v>2984.048871110877</v>
       </c>
       <c r="P41" t="n">
         <v>3378.823237468055</v>
@@ -7433,28 +7433,28 @@
         <v>3627.109599223737</v>
       </c>
       <c r="R41" t="n">
-        <v>3686.126665780539</v>
+        <v>3686.12666578054</v>
       </c>
       <c r="S41" t="n">
         <v>3623.285630255708</v>
       </c>
       <c r="T41" t="n">
-        <v>3464.757515588003</v>
+        <v>3464.757515588004</v>
       </c>
       <c r="U41" t="n">
-        <v>3258.676671809912</v>
+        <v>3258.676671809913</v>
       </c>
       <c r="V41" t="n">
-        <v>3258.676671809912</v>
+        <v>2975.063417414416</v>
       </c>
       <c r="W41" t="n">
-        <v>2953.357649487872</v>
+        <v>2669.744395092375</v>
       </c>
       <c r="X41" t="n">
-        <v>2627.341524174865</v>
+        <v>2343.728269779368</v>
       </c>
       <c r="Y41" t="n">
-        <v>2284.651825147127</v>
+        <v>2001.03857075163</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>183.2317192762053</v>
       </c>
       <c r="H42" t="n">
-        <v>92.72982491407282</v>
+        <v>92.72982491407285</v>
       </c>
       <c r="I42" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J42" t="n">
         <v>167.3998028062281</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>766.6766666887216</v>
+        <v>766.6766666887218</v>
       </c>
       <c r="C43" t="n">
-        <v>645.190116708888</v>
+        <v>645.1901167088881</v>
       </c>
       <c r="D43" t="n">
         <v>542.5231102446256</v>
@@ -7555,37 +7555,37 @@
         <v>442.0596496103058</v>
       </c>
       <c r="F43" t="n">
-        <v>342.6193350604688</v>
+        <v>342.6193350604686</v>
       </c>
       <c r="G43" t="n">
-        <v>222.3661313832611</v>
+        <v>222.3661313832609</v>
       </c>
       <c r="H43" t="n">
-        <v>123.5985775491921</v>
+        <v>123.598577549192</v>
       </c>
       <c r="I43" t="n">
-        <v>73.72253331561079</v>
+        <v>73.7225333156108</v>
       </c>
       <c r="J43" t="n">
-        <v>165.350551014953</v>
+        <v>165.3505510149532</v>
       </c>
       <c r="K43" t="n">
-        <v>415.843119216236</v>
+        <v>415.8431192162362</v>
       </c>
       <c r="L43" t="n">
-        <v>778.9083029171388</v>
+        <v>778.9083029171389</v>
       </c>
       <c r="M43" t="n">
-        <v>1169.570733769094</v>
+        <v>1169.570733769095</v>
       </c>
       <c r="N43" t="n">
         <v>1557.484495727366</v>
       </c>
       <c r="O43" t="n">
-        <v>1903.319479900186</v>
+        <v>1903.319479900185</v>
       </c>
       <c r="P43" t="n">
-        <v>2182.432365586252</v>
+        <v>2182.432365586251</v>
       </c>
       <c r="Q43" t="n">
         <v>2306.548046991173</v>
@@ -7612,7 +7612,7 @@
         <v>1074.218444766345</v>
       </c>
       <c r="Y43" t="n">
-        <v>900.8754985708881</v>
+        <v>900.8754985708879</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2025.683159108421</v>
+        <v>1661.888363635581</v>
       </c>
       <c r="C44" t="n">
-        <v>1704.170275116082</v>
+        <v>1340.375479643243</v>
       </c>
       <c r="D44" t="n">
-        <v>1393.354209457405</v>
+        <v>1029.559413984565</v>
       </c>
       <c r="E44" t="n">
-        <v>1055.015589807235</v>
+        <v>1029.559413984565</v>
       </c>
       <c r="F44" t="n">
-        <v>691.4793179657006</v>
+        <v>666.0231421430306</v>
       </c>
       <c r="G44" t="n">
-        <v>323.8565007587703</v>
+        <v>298.4003249361003</v>
       </c>
       <c r="H44" t="n">
         <v>73.72253331561079</v>
@@ -7655,16 +7655,16 @@
         <v>1047.455251212892</v>
       </c>
       <c r="M44" t="n">
-        <v>1580.987155884816</v>
+        <v>1869.238327498505</v>
       </c>
       <c r="N44" t="n">
-        <v>2127.765972943599</v>
+        <v>2416.017144557287</v>
       </c>
       <c r="O44" t="n">
-        <v>2708.797774683318</v>
+        <v>2918.989615436624</v>
       </c>
       <c r="P44" t="n">
-        <v>3103.572141040496</v>
+        <v>3313.763981793802</v>
       </c>
       <c r="Q44" t="n">
         <v>3562.050343549484</v>
@@ -7676,22 +7676,22 @@
         <v>3623.285630255708</v>
       </c>
       <c r="T44" t="n">
-        <v>3622.471467282753</v>
+        <v>3464.757515588003</v>
       </c>
       <c r="U44" t="n">
-        <v>3622.471467282753</v>
+        <v>3258.676671809913</v>
       </c>
       <c r="V44" t="n">
-        <v>3338.858212887255</v>
+        <v>2975.063417414416</v>
       </c>
       <c r="W44" t="n">
-        <v>3033.539190565214</v>
+        <v>2669.744395092375</v>
       </c>
       <c r="X44" t="n">
-        <v>2707.523065252207</v>
+        <v>2343.728269779368</v>
       </c>
       <c r="Y44" t="n">
-        <v>2364.833366224469</v>
+        <v>2001.03857075163</v>
       </c>
     </row>
     <row r="45">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>766.6766666887218</v>
+        <v>766.676666688722</v>
       </c>
       <c r="C46" t="n">
-        <v>645.1901167088881</v>
+        <v>645.1901167088884</v>
       </c>
       <c r="D46" t="n">
-        <v>542.5231102446257</v>
+        <v>542.5231102446259</v>
       </c>
       <c r="E46" t="n">
-        <v>442.0596496103059</v>
+        <v>442.059649610306</v>
       </c>
       <c r="F46" t="n">
-        <v>342.6193350604688</v>
+        <v>342.6193350604689</v>
       </c>
       <c r="G46" t="n">
         <v>222.3661313832611</v>
       </c>
       <c r="H46" t="n">
-        <v>123.5985775491921</v>
+        <v>123.5985775491922</v>
       </c>
       <c r="I46" t="n">
         <v>73.72253331561079</v>
       </c>
       <c r="J46" t="n">
-        <v>165.350551014953</v>
+        <v>165.3505510149538</v>
       </c>
       <c r="K46" t="n">
-        <v>415.843119216236</v>
+        <v>415.8431192162367</v>
       </c>
       <c r="L46" t="n">
-        <v>778.9083029171388</v>
+        <v>778.9083029171395</v>
       </c>
       <c r="M46" t="n">
-        <v>1169.570733769094</v>
+        <v>1169.570733769095</v>
       </c>
       <c r="N46" t="n">
         <v>1557.484495727366</v>
@@ -7825,22 +7825,22 @@
         <v>2182.432365586252</v>
       </c>
       <c r="Q46" t="n">
-        <v>2306.548046991173</v>
+        <v>2306.548046991174</v>
       </c>
       <c r="R46" t="n">
-        <v>2264.167222696774</v>
+        <v>2264.167222696775</v>
       </c>
       <c r="S46" t="n">
-        <v>2119.930971471674</v>
+        <v>2119.930971471675</v>
       </c>
       <c r="T46" t="n">
-        <v>1945.613988989273</v>
+        <v>1945.613988989274</v>
       </c>
       <c r="U46" t="n">
-        <v>1703.96075506299</v>
+        <v>1703.960755062991</v>
       </c>
       <c r="V46" t="n">
-        <v>1496.725899805176</v>
+        <v>1496.725899805177</v>
       </c>
       <c r="W46" t="n">
         <v>1254.758362716289</v>
@@ -7849,7 +7849,7 @@
         <v>1074.218444766345</v>
       </c>
       <c r="Y46" t="n">
-        <v>900.8754985708881</v>
+        <v>900.8754985708885</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>165.5682265218419</v>
+        <v>165.5682265218418</v>
       </c>
       <c r="K8" t="n">
-        <v>196.8928238898386</v>
+        <v>196.8928238898385</v>
       </c>
       <c r="L8" t="n">
-        <v>206.9884515625794</v>
+        <v>206.9884515625792</v>
       </c>
       <c r="M8" t="n">
-        <v>198.3252040166141</v>
+        <v>198.325204016614</v>
       </c>
       <c r="N8" t="n">
-        <v>196.8739006563485</v>
+        <v>196.8739006563484</v>
       </c>
       <c r="O8" t="n">
-        <v>199.3724025592443</v>
+        <v>199.3724025592441</v>
       </c>
       <c r="P8" t="n">
-        <v>205.0092287578866</v>
+        <v>205.0092287578865</v>
       </c>
       <c r="Q8" t="n">
-        <v>202.6127329749883</v>
+        <v>202.6127329749882</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,22 +8535,22 @@
         <v>122.0857268206291</v>
       </c>
       <c r="L9" t="n">
-        <v>117.3688804135381</v>
+        <v>117.368880413538</v>
       </c>
       <c r="M9" t="n">
-        <v>117.4115554169534</v>
+        <v>117.4115554169533</v>
       </c>
       <c r="N9" t="n">
-        <v>105.9649031362701</v>
+        <v>105.96490313627</v>
       </c>
       <c r="O9" t="n">
-        <v>119.381422019929</v>
+        <v>119.3814220199289</v>
       </c>
       <c r="P9" t="n">
-        <v>115.3424657637588</v>
+        <v>115.3424657637587</v>
       </c>
       <c r="Q9" t="n">
-        <v>127.5268145151126</v>
+        <v>127.5268145151125</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>122.7231057150831</v>
+        <v>122.723105715083</v>
       </c>
       <c r="M10" t="n">
-        <v>126.1031129636125</v>
+        <v>126.1031129636124</v>
       </c>
       <c r="N10" t="n">
-        <v>115.1677679371611</v>
+        <v>115.167767937161</v>
       </c>
       <c r="O10" t="n">
-        <v>126.8943457673264</v>
+        <v>126.8943457673263</v>
       </c>
       <c r="P10" t="n">
         <v>127.834550777035</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>40.01310859644173</v>
       </c>
       <c r="O23" t="n">
-        <v>251.7166746871152</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>190.2350110279878</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>287.0017854473899</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>21.74982042514705</v>
+        <v>221.285365574408</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,19 +10358,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>35.0805113112865</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>32.73380691160446</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>32.73380691160446</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>144.5642288228639</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>187.782604310695</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>187.7826043106954</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11303,19 +11303,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>291.1627996097862</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>78.84780894988126</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.28796821707176</v>
+        <v>15.28796821707175</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>23.23161743843619</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>151.5159098051013</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>42.32535640796396</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>234.6935818597305</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>69.74216386628484</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>342.6969415247049</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96297765942734</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>111.9486533901767</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5274743413864</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,22 +23969,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0481076422591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>115.3909977487308</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>186.056125132417</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.3829802585719</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-9.257039707010313e-13</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.918465386552271e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>52.44894251602113</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>79.37972566656886</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>25.20161406444273</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.1368121778016</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>680348.921919096</v>
+        <v>680348.9219190961</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>680348.9219190961</v>
+        <v>680348.9219190963</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>722490.6653857868</v>
+        <v>722490.6653857867</v>
       </c>
     </row>
     <row r="10">
@@ -26314,46 +26314,46 @@
         <v>737348.7048453346</v>
       </c>
       <c r="C2" t="n">
-        <v>737349.7629178475</v>
+        <v>737349.762917848</v>
       </c>
       <c r="D2" t="n">
-        <v>737361.7692009482</v>
+        <v>737361.7692009481</v>
       </c>
       <c r="E2" t="n">
-        <v>688077.9089008591</v>
+        <v>688077.9089008587</v>
       </c>
       <c r="F2" t="n">
-        <v>688077.908900859</v>
+        <v>688077.9089008592</v>
       </c>
       <c r="G2" t="n">
-        <v>709390.4553676447</v>
+        <v>709390.4553676449</v>
       </c>
       <c r="H2" t="n">
-        <v>709390.4553676444</v>
+        <v>709390.4553676448</v>
       </c>
       <c r="I2" t="n">
+        <v>738937.5928778549</v>
+      </c>
+      <c r="J2" t="n">
         <v>738937.5928778553</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>738937.5928778548</v>
+      </c>
+      <c r="L2" t="n">
         <v>738937.5928778555</v>
       </c>
-      <c r="K2" t="n">
-        <v>738937.5928778555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>738937.5928778553</v>
-      </c>
       <c r="M2" t="n">
-        <v>738937.5928778553</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="N2" t="n">
         <v>738937.5928778555</v>
       </c>
       <c r="O2" t="n">
-        <v>713135.9563216581</v>
+        <v>713135.9563216578</v>
       </c>
       <c r="P2" t="n">
-        <v>713135.9563216585</v>
+        <v>713135.9563216582</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>35702.60046935159</v>
+        <v>35702.60046935178</v>
       </c>
       <c r="E3" t="n">
-        <v>1124903.918865023</v>
+        <v>1124903.918865022</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.081480943161296e-10</v>
       </c>
       <c r="G3" t="n">
         <v>16999.71800812477</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.23978166299</v>
+        <v>28261.23978166283</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.54414803073</v>
+        <v>40637.54414803084</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.71800812477</v>
+        <v>16999.71800812478</v>
       </c>
       <c r="M3" t="n">
         <v>204641.6335045841</v>
@@ -26424,22 +26424,22 @@
         <v>423752.0599707541</v>
       </c>
       <c r="E4" t="n">
-        <v>58215.55741359852</v>
+        <v>58215.55741359854</v>
       </c>
       <c r="F4" t="n">
-        <v>58215.55741359852</v>
+        <v>58215.55741359857</v>
       </c>
       <c r="G4" t="n">
-        <v>71624.61628857296</v>
+        <v>71624.61628857302</v>
       </c>
       <c r="H4" t="n">
-        <v>71624.61628857297</v>
+        <v>71624.61628857302</v>
       </c>
       <c r="I4" t="n">
-        <v>85910.97499131851</v>
+        <v>85910.97499131849</v>
       </c>
       <c r="J4" t="n">
-        <v>82806.76150409837</v>
+        <v>82806.76150409844</v>
       </c>
       <c r="K4" t="n">
         <v>82806.76150409837</v>
@@ -26448,13 +26448,13 @@
         <v>82806.76150409839</v>
       </c>
       <c r="M4" t="n">
-        <v>86578.44856836615</v>
+        <v>86578.44856836613</v>
       </c>
       <c r="N4" t="n">
-        <v>86578.44856836615</v>
+        <v>86578.44856836613</v>
       </c>
       <c r="O4" t="n">
-        <v>70331.39278750686</v>
+        <v>70331.39278750685</v>
       </c>
       <c r="P4" t="n">
         <v>70331.39278750683</v>
@@ -26473,22 +26473,22 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34616.49914020259</v>
+        <v>34616.4991402026</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.92993831306</v>
+        <v>80041.92993831307</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.92993831306</v>
+        <v>80041.92993831307</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.56094423252</v>
+        <v>86503.56094423249</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267447.2251260865</v>
+        <v>267442.8115482184</v>
       </c>
       <c r="C6" t="n">
-        <v>265055.6048557937</v>
+        <v>265051.1942170164</v>
       </c>
       <c r="D6" t="n">
-        <v>243290.6096206399</v>
+        <v>243286.2323326482</v>
       </c>
       <c r="E6" t="n">
-        <v>-573297.0606995439</v>
+        <v>-573438.3375994799</v>
       </c>
       <c r="F6" t="n">
-        <v>551606.8581654787</v>
+        <v>551465.5812655425</v>
       </c>
       <c r="G6" t="n">
-        <v>540724.1911326339</v>
+        <v>540642.1157506612</v>
       </c>
       <c r="H6" t="n">
-        <v>557723.9091407583</v>
+        <v>557641.8337587859</v>
       </c>
       <c r="I6" t="n">
-        <v>538261.8171606413</v>
+        <v>538261.8171606411</v>
       </c>
       <c r="J6" t="n">
-        <v>526115.3455509203</v>
+        <v>526115.3455509199</v>
       </c>
       <c r="K6" t="n">
-        <v>566752.889698951</v>
+        <v>566752.8896989503</v>
       </c>
       <c r="L6" t="n">
-        <v>549753.1716908261</v>
+        <v>549753.1716908263</v>
       </c>
       <c r="M6" t="n">
-        <v>361819.3845078613</v>
+        <v>361819.3845078615</v>
       </c>
       <c r="N6" t="n">
         <v>566461.0180124457</v>
       </c>
       <c r="O6" t="n">
-        <v>559069.1533809648</v>
+        <v>558997.4821683083</v>
       </c>
       <c r="P6" t="n">
-        <v>559069.1533809651</v>
+        <v>558997.4821683088</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="F2" t="n">
+        <v>46.9751366185926</v>
+      </c>
+      <c r="G2" t="n">
+        <v>68.22478412874857</v>
+      </c>
+      <c r="H2" t="n">
+        <v>68.22478412874857</v>
+      </c>
+      <c r="I2" t="n">
+        <v>68.22478412874857</v>
+      </c>
+      <c r="J2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="K2" t="n">
         <v>46.97513661859254</v>
-      </c>
-      <c r="F2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="G2" t="n">
-        <v>68.2247841287485</v>
-      </c>
-      <c r="H2" t="n">
-        <v>68.2247841287485</v>
-      </c>
-      <c r="I2" t="n">
-        <v>68.2247841287485</v>
-      </c>
-      <c r="J2" t="n">
-        <v>46.97513661859254</v>
-      </c>
-      <c r="K2" t="n">
-        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="N2" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>45.36234588085298</v>
+        <v>45.36234588085318</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6782811575471</v>
+        <v>937.6782811575466</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,13 +26820,13 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.531666445135</v>
       </c>
       <c r="N4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.531666445135</v>
       </c>
       <c r="O4" t="n">
-        <v>921.5316664451349</v>
+        <v>921.531666445135</v>
       </c>
       <c r="P4" t="n">
         <v>921.5316664451349</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24964751015596</v>
+        <v>21.24964751015597</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72548910843658</v>
+        <v>25.72548910843657</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24964751015596</v>
+        <v>21.24964751015597</v>
       </c>
       <c r="M2" t="n">
-        <v>25.72548910843659</v>
+        <v>25.72548910843655</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>41.68848298761066</v>
+        <v>41.68848298761087</v>
       </c>
       <c r="E3" t="n">
         <v>1044.414354712445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2768257552543</v>
+        <v>106.2768257552538</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65818005106735</v>
+        <v>76.6581800510678</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>738.5966606388133</v>
+        <v>738.5966606388132</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24964751015596</v>
+        <v>21.24964751015597</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72548910843658</v>
+        <v>25.72548910843657</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>138.4138718730567</v>
+        <v>138.4138718730566</v>
       </c>
       <c r="S8" t="n">
-        <v>204.8645139811803</v>
+        <v>204.8645139811802</v>
       </c>
       <c r="T8" t="n">
         <v>222.2975634572231</v>
@@ -27950,7 +27950,7 @@
         <v>111.2931056928206</v>
       </c>
       <c r="I9" t="n">
-        <v>86.03725157627643</v>
+        <v>86.03725157627642</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>94.09982124425299</v>
+        <v>94.09982124425296</v>
       </c>
       <c r="S9" t="n">
         <v>169.8708170019</v>
@@ -28029,13 +28029,13 @@
         <v>161.499887683317</v>
       </c>
       <c r="I10" t="n">
-        <v>152.9904972194901</v>
+        <v>152.99049721949</v>
       </c>
       <c r="J10" t="n">
-        <v>87.57585283937124</v>
+        <v>87.57585283937121</v>
       </c>
       <c r="K10" t="n">
-        <v>12.76570854133694</v>
+        <v>12.76570854133689</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.31232902368559</v>
+        <v>79.31232902368555</v>
       </c>
       <c r="R10" t="n">
         <v>173.6153231357482</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859139</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859313</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="C17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="D17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="E17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="F17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="G17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="H17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="T17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="U17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="V17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="W17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="X17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="C19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="D19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="E19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="F19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="G19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="H19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="I19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.9034700913823</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.90347009138385</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="S19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="T19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="U19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="V19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="W19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="X19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="C20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="D20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="E20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="F20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="G20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="H20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="T20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="U20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="V20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="W20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="X20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="C22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="D22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="E22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="F22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="G22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="H22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="I22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>28.90347009138384</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -28998,34 +28998,34 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>28.90347009138247</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="S22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="T22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="U22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="V22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="W22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="X22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="C23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="D23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="E23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="F23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="G23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="H23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="T23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="U23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="V23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="W23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="X23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="C25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="D25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="E25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="F25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="G25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="H25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="I25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.9034700913823</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,34 +29235,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>28.90347009138338</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="S25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="T25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="U25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="V25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="W25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="X25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.2247841287485</v>
+        <v>68.22478412874857</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="C35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="D35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="E35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="F35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="G35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="H35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="T35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="U35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="V35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="W35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="X35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="Y35" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="C37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="D37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="E37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="F37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="G37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="H37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="I37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="S37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="T37" t="n">
-        <v>72.70062572702915</v>
+        <v>29.41545119110464</v>
       </c>
       <c r="U37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="V37" t="n">
-        <v>29.41545119110401</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="W37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="X37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="C38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="D38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="E38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="F38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="G38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="H38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="T38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="U38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="V38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="W38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="X38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="Y38" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="C40" t="n">
-        <v>29.41545119110401</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="D40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="E40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="F40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="G40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="H40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="I40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="S40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="T40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="U40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="V40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="W40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="X40" t="n">
-        <v>72.70062572702915</v>
+        <v>72.70062572702911</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.70062572702915</v>
+        <v>29.41545119110452</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859335</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31300,7 +31300,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>2.48846056906043</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
         <v>2.123843523123063</v>
@@ -31309,7 +31309,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S5" t="n">
         <v>0.3365553796171231</v>
@@ -31434,10 +31434,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I7" t="n">
         <v>0.1992317778827147</v>
@@ -31449,7 +31449,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M7" t="n">
         <v>1.038498653576677</v>
@@ -31467,13 +31467,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S7" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U7" t="n">
         <v>0.0003613635632697367</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1823611894707656</v>
+        <v>0.1823611894707664</v>
       </c>
       <c r="H8" t="n">
-        <v>1.867606531667479</v>
+        <v>1.867606531667487</v>
       </c>
       <c r="I8" t="n">
-        <v>7.030479757071697</v>
+        <v>7.030479757071729</v>
       </c>
       <c r="J8" t="n">
-        <v>15.47767800484441</v>
+        <v>15.47767800484448</v>
       </c>
       <c r="K8" t="n">
-        <v>23.19702715514192</v>
+        <v>23.19702715514202</v>
       </c>
       <c r="L8" t="n">
-        <v>28.77796340740787</v>
+        <v>28.777963407408</v>
       </c>
       <c r="M8" t="n">
-        <v>32.0210292106586</v>
+        <v>32.02102921065874</v>
       </c>
       <c r="N8" t="n">
-        <v>32.53916294024241</v>
+        <v>32.53916294024256</v>
       </c>
       <c r="O8" t="n">
-        <v>30.72580886244248</v>
+        <v>30.72580886244262</v>
       </c>
       <c r="P8" t="n">
-        <v>26.22376699738295</v>
+        <v>26.22376699738307</v>
       </c>
       <c r="Q8" t="n">
-        <v>19.69295689946115</v>
+        <v>19.69295689946124</v>
       </c>
       <c r="R8" t="n">
-        <v>11.45524606809299</v>
+        <v>11.45524606809304</v>
       </c>
       <c r="S8" t="n">
-        <v>4.155555605065075</v>
+        <v>4.155555605065095</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7982861069082768</v>
+        <v>0.7982861069082805</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01458889515766124</v>
+        <v>0.01458889515766131</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09757183830975924</v>
+        <v>0.09757183830975968</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9423385436758328</v>
+        <v>0.942338543675837</v>
       </c>
       <c r="I9" t="n">
-        <v>3.359381275138641</v>
+        <v>3.359381275138656</v>
       </c>
       <c r="J9" t="n">
-        <v>9.218398986975982</v>
+        <v>9.218398986976025</v>
       </c>
       <c r="K9" t="n">
-        <v>15.75571215372985</v>
+        <v>15.75571215372992</v>
       </c>
       <c r="L9" t="n">
-        <v>21.1854993663361</v>
+        <v>21.1854993663362</v>
       </c>
       <c r="M9" t="n">
-        <v>24.72247850506487</v>
+        <v>24.72247850506498</v>
       </c>
       <c r="N9" t="n">
-        <v>25.37680894706321</v>
+        <v>25.37680894706333</v>
       </c>
       <c r="O9" t="n">
-        <v>23.21482242451539</v>
+        <v>23.2148224245155</v>
       </c>
       <c r="P9" t="n">
-        <v>18.63194165057148</v>
+        <v>18.63194165057157</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.45495957090892</v>
+        <v>12.45495957090897</v>
       </c>
       <c r="R9" t="n">
-        <v>6.058012908390142</v>
+        <v>6.058012908390169</v>
       </c>
       <c r="S9" t="n">
-        <v>1.812354101937851</v>
+        <v>1.81235410193786</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3932829798538101</v>
+        <v>0.3932829798538119</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006419199888799952</v>
+        <v>0.006419199888799982</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08180095158842339</v>
+        <v>0.08180095158842376</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7272848241225285</v>
+        <v>0.7272848241225318</v>
       </c>
       <c r="I10" t="n">
-        <v>2.459977707768224</v>
+        <v>2.459977707768235</v>
       </c>
       <c r="J10" t="n">
-        <v>5.783327277301534</v>
+        <v>5.78332727730156</v>
       </c>
       <c r="K10" t="n">
-        <v>9.503783284545916</v>
+        <v>9.503783284545959</v>
       </c>
       <c r="L10" t="n">
-        <v>12.16157056615524</v>
+        <v>12.16157056615529</v>
       </c>
       <c r="M10" t="n">
-        <v>12.82267098399259</v>
+        <v>12.82267098399264</v>
       </c>
       <c r="N10" t="n">
-        <v>12.51777652807211</v>
+        <v>12.51777652807217</v>
       </c>
       <c r="O10" t="n">
-        <v>11.56219268451643</v>
+        <v>11.56219268451648</v>
       </c>
       <c r="P10" t="n">
-        <v>9.893453272112586</v>
+        <v>9.89345327211263</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.849714228008799</v>
+        <v>6.84971422800883</v>
       </c>
       <c r="R10" t="n">
-        <v>3.678068241421291</v>
+        <v>3.678068241421308</v>
       </c>
       <c r="S10" t="n">
-        <v>1.425567492681887</v>
+        <v>1.425567492681894</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3495131567868999</v>
+        <v>0.3495131567869014</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004461870086641282</v>
+        <v>0.004461870086641301</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32330,10 +32330,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165762</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629127</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35814,16 +35814,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35978,10 +35978,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.6608422615804</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.2977086292775</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36285,7 +36285,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>376.5368494848677</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
         <v>344.8569461675401</v>
@@ -36294,7 +36294,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>263.8605412364929</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789366</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36367,10 +36367,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>592.3149440093532</v>
       </c>
       <c r="O23" t="n">
-        <v>759.7696755753343</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597688</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36522,7 +36522,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5368494848661</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36531,7 +36531,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>263.8605412364938</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789366</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>614.411970709814</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>698.2880119162069</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>795.0547863356093</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737854</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37002,7 +37002,7 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
@@ -37069,7 +37069,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>358.9411069805475</v>
+        <v>558.4766521298085</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37078,19 +37078,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37306,13 +37306,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>490.6706257036187</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>571.6549227418312</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37321,7 +37321,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37543,13 +37543,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>571.6549227418312</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37558,10 +37558,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>543.3262150422357</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37780,7 +37780,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>524.9738908660955</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>695.8356051989145</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37947,7 +37947,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
@@ -38023,19 +38023,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>830.083915440013</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>586.9008098381004</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165958</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
@@ -38193,7 +38193,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
